--- a/200519 project/200519_project.xlsx
+++ b/200519 project/200519_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AI_Academy\200519\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AI_Academy\200519 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>형식</t>
   </si>
@@ -295,6 +295,18 @@
       </rPr>
       <t>2_Sjedited</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.5.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 표시 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +684,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -684,7 +696,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +708,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="16" t="s">
         <v>23</v>
@@ -708,7 +720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -718,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
@@ -728,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
@@ -826,6 +838,20 @@
       </c>
       <c r="D14" s="10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/200519 project/200519_project.xlsx
+++ b/200519 project/200519_project.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>형식</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>structure_Team</t>
-  </si>
-  <si>
-    <t>20518 16:22</t>
   </si>
   <si>
     <t>현재 버전</t>
@@ -162,21 +159,6 @@
         <charset val="129"/>
       </rPr>
       <t>멤버</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.0.0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -275,6 +257,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>2020.5.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 표시 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>GitHub\AI_Academy\200519</t>
     </r>
@@ -284,7 +278,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>\</t>
+      <t>\3</t>
     </r>
     <r>
       <rPr>
@@ -293,20 +287,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2_Sjedited</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.5.26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 표시 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.0.3</t>
+      <t>_Sjedited</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -466,6 +448,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -687,7 +670,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -711,147 +694,148 @@
     <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="19">
+        <f ca="1">TODAY()</f>
+        <v>43977</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/200519 project/200519_project.xlsx
+++ b/200519 project/200519_project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>형식</t>
   </si>
@@ -159,21 +159,6 @@
         <charset val="129"/>
       </rPr>
       <t>멤버</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.0.0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -249,14 +234,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.0.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.0.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.5.26</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -265,12 +242,28 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.0.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GitHub\AI_Academy\200519</t>
+    <t>1.0.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GitHub\AI_Academy\200519 project</t>
     </r>
     <r>
       <rPr>
@@ -287,7 +280,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_Sjedited</t>
+      <t>_SJedited</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -670,7 +663,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -756,16 +749,16 @@
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <f ca="1">TODAY()</f>
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,13 +777,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>31</v>
@@ -804,35 +797,35 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>34</v>

--- a/200519 project/200519_project.xlsx
+++ b/200519 project/200519_project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>형식</t>
   </si>
@@ -258,7 +258,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>2020.5.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 방식 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -271,7 +283,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>\3</t>
+      <t>\</t>
     </r>
     <r>
       <rPr>
@@ -280,7 +292,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_SJedited</t>
+      <t>4_F edited</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -660,10 +672,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,10 +767,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,6 +841,20 @@
       </c>
       <c r="D15" s="10" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
